--- a/chip_list.xlsx
+++ b/chip_list.xlsx
@@ -232,7 +232,9 @@
     <xf fontId="1" fillId="2" borderId="1" numFmtId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
       <protection hidden="0" locked="1"/>
@@ -753,7 +755,7 @@
   <cols>
     <col customWidth="1" min="2" max="2" width="13.421875"/>
     <col customWidth="1" min="3" max="3" width="23.8515625"/>
-    <col bestFit="1" customWidth="1" min="4" max="4" width="90.140625"/>
+    <col customWidth="1" min="4" max="4" style="1" width="54.7109375"/>
     <col customWidth="1" min="5" max="5" style="1" width="31.7109375"/>
   </cols>
   <sheetData>
@@ -767,7 +769,7 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
@@ -794,7 +796,7 @@
       </c>
       <c r="D3" s="4"/>
     </row>
-    <row r="4" ht="14.25">
+    <row r="4" ht="28.5">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -823,7 +825,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" ht="14.25">
+    <row r="8" ht="28.5">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -837,7 +839,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" ht="14.25">
+    <row r="9" ht="28.5">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -861,11 +863,11 @@
       <c r="C10" t="s">
         <v>25</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="11" ht="14.25">
+    <row r="11" ht="28.5">
       <c r="A11" t="s">
         <v>26</v>
       </c>
@@ -879,7 +881,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" ht="14.25">
+    <row r="12" ht="28.5">
       <c r="A12" t="s">
         <v>30</v>
       </c>
@@ -897,14 +899,14 @@
       <c r="B13" t="s">
         <v>34</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="14" ht="14.25">
+    <row r="14" ht="28.5">
       <c r="A14" t="s">
         <v>37</v>
       </c>
@@ -918,7 +920,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15" ht="14.25">
+    <row r="15" ht="28.5">
       <c r="A15" t="s">
         <v>41</v>
       </c>
@@ -932,7 +934,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" ht="14.25">
+    <row r="16" ht="28.5">
       <c r="A16" t="s">
         <v>42</v>
       </c>
@@ -964,7 +966,7 @@
   </hyperlinks>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/chip_list.xlsx
+++ b/chip_list.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t xml:space="preserve">UC ID</t>
   </si>
@@ -154,13 +154,58 @@
   </si>
   <si>
     <t xml:space="preserve">Similar, but not the right datasheet</t>
+  </si>
+  <si>
+    <t>Q1</t>
+  </si>
+  <si>
+    <t>nce40p13s</t>
+  </si>
+  <si>
+    <t>SOP-8</t>
+  </si>
+  <si>
+    <t>https://www.lcsc.com/datasheet/lcsc_datasheet_1912111437_Wuxi-NCE-Power-Semiconductor-NCE40P13S_C341713.pdf</t>
+  </si>
+  <si>
+    <t>Q5</t>
+  </si>
+  <si>
+    <t>MMBT5551LT</t>
+  </si>
+  <si>
+    <t>SOT−23</t>
+  </si>
+  <si>
+    <t>https://www.onsemi.com/pdf/datasheet/mmbt5550lt1-d.pdf</t>
+  </si>
+  <si>
+    <t>Q11</t>
+  </si>
+  <si>
+    <t>Q15</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>BZT52C12</t>
+  </si>
+  <si>
+    <t>SOD-123</t>
+  </si>
+  <si>
+    <t>https://www.diodes.com/assets/Datasheets/ds18004.pdf</t>
+  </si>
+  <si>
+    <t>D2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11.000000"/>
       <color theme="1"/>
@@ -179,6 +224,11 @@
       <sz val="11.000000"/>
       <color theme="10"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10.000000"/>
+      <color indexed="64"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="3">
@@ -223,7 +273,7 @@
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf fontId="1" fillId="2" borderId="1" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -239,6 +289,14 @@
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
       <protection hidden="0" locked="1"/>
     </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
+    <xf fontId="3" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf fontId="3" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -952,6 +1010,91 @@
       </c>
     </row>
     <row r="17" ht="14.25"/>
+    <row r="19" ht="28.5">
+      <c r="A19" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" ht="14.25">
+      <c r="A20" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" ht="28.5">
+      <c r="A21" t="s">
+        <v>55</v>
+      </c>
+      <c r="B21" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" t="s">
+        <v>49</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" ht="14.25">
+      <c r="A22" t="s">
+        <v>56</v>
+      </c>
+      <c r="B22" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="26" ht="14.25">
+      <c r="A26" t="s">
+        <v>57</v>
+      </c>
+      <c r="B26" t="s">
+        <v>58</v>
+      </c>
+      <c r="C26" t="s">
+        <v>59</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" ht="14.25">
+      <c r="A27" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="B27" t="s">
+        <v>58</v>
+      </c>
+      <c r="C27" t="s">
+        <v>59</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" ht="14.25"/>
   </sheetData>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="D2"/>
@@ -963,6 +1106,12 @@
     <hyperlink r:id="rId7" ref="D14"/>
     <hyperlink r:id="rId4" ref="D15"/>
     <hyperlink r:id="rId8" ref="D16"/>
+    <hyperlink r:id="rId9" ref="D19"/>
+    <hyperlink r:id="rId10" ref="D20"/>
+    <hyperlink r:id="rId9" ref="D21"/>
+    <hyperlink r:id="rId10" ref="D22"/>
+    <hyperlink r:id="rId11" ref="D26"/>
+    <hyperlink r:id="rId11" ref="D27"/>
   </hyperlinks>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>

--- a/chip_list.xlsx
+++ b/chip_list.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
   <si>
     <t xml:space="preserve">UC ID</t>
   </si>
@@ -112,6 +112,9 @@
   </si>
   <si>
     <t>https://www.winbond.com/resource-files/W25Q32JV%20RevI%2005042021%20Plus.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SERIAL FLASH MEMORY</t>
   </si>
   <si>
     <t>U12</t>
@@ -227,7 +230,6 @@
     </font>
     <font>
       <sz val="10.000000"/>
-      <color indexed="64"/>
       <name val="Arial"/>
     </font>
   </fonts>
@@ -273,7 +275,7 @@
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf fontId="1" fillId="2" borderId="1" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -286,17 +288,15 @@
       <alignment wrapText="1"/>
     </xf>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
       <protection hidden="0" locked="1"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
-    <xf fontId="3" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf fontId="3" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -949,43 +949,46 @@
       <c r="D12" s="4" t="s">
         <v>32</v>
       </c>
+      <c r="E12" s="6" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="13" ht="28.5">
       <c r="A13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" ht="28.5">
       <c r="A14" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B14" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C14" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" ht="28.5">
       <c r="A15" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B15" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="7" t="s">
         <v>12</v>
       </c>
       <c r="D15" s="4" t="s">
@@ -994,104 +997,104 @@
     </row>
     <row r="16" ht="28.5">
       <c r="A16" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" ht="14.25"/>
     <row r="19" ht="28.5">
       <c r="A19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B19" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C19" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" ht="14.25">
-      <c r="A20" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="B20" s="7" t="s">
+      <c r="A20" s="5" t="s">
         <v>52</v>
       </c>
+      <c r="B20" s="5" t="s">
+        <v>53</v>
+      </c>
       <c r="C20" s="8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" ht="28.5">
       <c r="A21" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B21" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C21" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22" ht="14.25">
       <c r="A22" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B22" t="s">
-        <v>52</v>
-      </c>
-      <c r="C22" s="9" t="s">
         <v>53</v>
       </c>
+      <c r="C22" s="8" t="s">
+        <v>54</v>
+      </c>
       <c r="D22" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="26" ht="14.25">
       <c r="A26" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C26" t="s">
+        <v>60</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="27" ht="14.25">
+      <c r="A27" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B27" t="s">
         <v>59</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="C27" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="27" ht="14.25">
-      <c r="A27" s="10" t="s">
+      <c r="D27" s="4" t="s">
         <v>61</v>
-      </c>
-      <c r="B27" t="s">
-        <v>58</v>
-      </c>
-      <c r="C27" t="s">
-        <v>59</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="28" ht="14.25"/>
